--- a/DataSets/VIS-MCV (1).xlsx
+++ b/DataSets/VIS-MCV (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dewas\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CancerDetection-project-1\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86983FD4-CACB-479F-91B8-AC9B91774936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EAA8BEFC-D218-4D50-957E-35DEC4891D6A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="v_hbv" sheetId="2" r:id="rId1"/>
@@ -310,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -678,24 +677,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBFB9AE-80C3-453F-A06D-014CCBF8FE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="46.8" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="46.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,14 +1114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5695FA6A-A9E3-47F8-9B6B-CFB96250D376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
